--- a/xlsx/北大西洋公約組織_intext.xlsx
+++ b/xlsx/北大西洋公約組織_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1054">
   <si>
     <t>北大西洋公約組織</t>
   </si>
@@ -29,7 +29,7 @@
     <t>军事同盟</t>
   </si>
   <si>
-    <t>政策_政策_美國_北大西洋公約組織</t>
+    <t>体育运动_体育运动_苏联_北大西洋公約組織</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
@@ -50,174 +50,174 @@
     <t>地理坐标</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>丹麥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>希臘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>冰島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
+  </si>
+  <si>
+    <t>波蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
     <t>美國</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>冰島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
-  </si>
-  <si>
-    <t>波蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
@@ -1794,6 +1794,12 @@
   </si>
   <si>
     <t>黎巴嫩內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -3519,7 +3525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3689,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -3747,7 +3753,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -3776,7 +3782,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -3805,7 +3811,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3834,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -3863,7 +3869,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -3892,7 +3898,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -3921,7 +3927,7 @@
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -3950,7 +3956,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -3979,7 +3985,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -4008,7 +4014,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -4037,7 +4043,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4066,7 +4072,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -4095,7 +4101,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -4124,7 +4130,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -4182,7 +4188,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -4211,7 +4217,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -4298,7 +4304,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -4327,7 +4333,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -4356,7 +4362,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -4385,7 +4391,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -4414,7 +4420,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -4443,7 +4449,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -4472,7 +4478,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -13079,10 +13085,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>423</v>
+        <v>647</v>
       </c>
       <c r="F330" t="s">
-        <v>424</v>
+        <v>648</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13108,10 +13114,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>423</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>424</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13868,7 +13874,7 @@
         <v>700</v>
       </c>
       <c r="G357" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13897,7 +13903,7 @@
         <v>702</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -14390,7 +14396,7 @@
         <v>736</v>
       </c>
       <c r="G375" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14419,7 +14425,7 @@
         <v>738</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14738,7 +14744,7 @@
         <v>760</v>
       </c>
       <c r="G387" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14767,7 +14773,7 @@
         <v>762</v>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -15254,10 +15260,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>361</v>
+        <v>795</v>
       </c>
       <c r="F405" t="s">
-        <v>362</v>
+        <v>796</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15283,10 +15289,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>795</v>
+        <v>361</v>
       </c>
       <c r="F406" t="s">
-        <v>796</v>
+        <v>362</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15782,7 +15788,7 @@
         <v>830</v>
       </c>
       <c r="G423" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -15811,7 +15817,7 @@
         <v>832</v>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15985,7 +15991,7 @@
         <v>844</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16043,7 +16049,7 @@
         <v>848</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16333,7 +16339,7 @@
         <v>868</v>
       </c>
       <c r="G442" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16362,7 +16368,7 @@
         <v>870</v>
       </c>
       <c r="G443" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -16855,7 +16861,7 @@
         <v>904</v>
       </c>
       <c r="G460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -16884,7 +16890,7 @@
         <v>906</v>
       </c>
       <c r="G461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -17139,10 +17145,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>359</v>
+        <v>923</v>
       </c>
       <c r="F470" t="s">
-        <v>360</v>
+        <v>924</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17168,10 +17174,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>923</v>
+        <v>359</v>
       </c>
       <c r="F471" t="s">
-        <v>924</v>
+        <v>360</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17841,7 +17847,7 @@
         <v>970</v>
       </c>
       <c r="G494" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17870,7 +17876,7 @@
         <v>972</v>
       </c>
       <c r="G495" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H495" t="s">
         <v>4</v>
@@ -17957,7 +17963,7 @@
         <v>978</v>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -17986,7 +17992,7 @@
         <v>980</v>
       </c>
       <c r="G499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -18154,10 +18160,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>273</v>
+        <v>991</v>
       </c>
       <c r="F505" t="s">
-        <v>274</v>
+        <v>992</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18183,10 +18189,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>991</v>
+        <v>273</v>
       </c>
       <c r="F506" t="s">
-        <v>992</v>
+        <v>274</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18624,7 +18630,7 @@
         <v>1022</v>
       </c>
       <c r="G521" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -18653,7 +18659,7 @@
         <v>1024</v>
       </c>
       <c r="G522" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -19030,7 +19036,7 @@
         <v>1050</v>
       </c>
       <c r="G535" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -19053,18 +19059,47 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F536" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G536" t="n">
+        <v>21</v>
+      </c>
+      <c r="H536" t="s">
+        <v>4</v>
+      </c>
+      <c r="I536" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1</v>
+      </c>
+      <c r="D537" t="n">
+        <v>536</v>
+      </c>
+      <c r="E537" t="s">
         <v>1051</v>
       </c>
-      <c r="G536" t="n">
-        <v>1</v>
-      </c>
-      <c r="H536" t="s">
-        <v>4</v>
-      </c>
-      <c r="I536" t="n">
+      <c r="F537" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1</v>
+      </c>
+      <c r="H537" t="s">
+        <v>4</v>
+      </c>
+      <c r="I537" t="n">
         <v>3</v>
       </c>
     </row>
